--- a/mutual_fund_project/COVER SHEET - KS.xlsx
+++ b/mutual_fund_project/COVER SHEET - KS.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,10 +427,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +450,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20:H32"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,7 +463,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.14"/>
@@ -713,11 +709,11 @@
       <c r="G16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I16" s="37" t="n">
-        <v>0.08</v>
+      <c r="H16" s="27" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <v>0.2597</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>16</v>

--- a/mutual_fund_project/COVER SHEET - KS.xlsx
+++ b/mutual_fund_project/COVER SHEET - KS.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,6 +419,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,7 +454,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,6 +653,8 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="31" t="s">
@@ -675,14 +681,14 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
@@ -733,6 +739,8 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="31" t="s">
